--- a/Datos/Database by set/Set with text box/Xlsx sets/Jumpstart Front Cards (FJMP).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Jumpstart Front Cards (FJMP).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A137"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,952 +444,322 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Above the Clouds</t>
+          <t>('Above the Clouds', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Angels', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(Theme color: {U})</t>
+          <t>('Archaeology', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Angels</t>
+          <t>('Basri', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Cats', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>(Theme color: {W})</t>
+          <t>('Chandra', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Archaeology</t>
+          <t>('Devilish', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Dinosaurs', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>(Theme color: {U})</t>
+          <t>('Discarding', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Basri</t>
+          <t>('Doctor', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Dogs', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>(Theme color: {W})</t>
+          <t>('Dragons', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cats</t>
+          <t>('Elves', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Enchanted', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>(Theme color: {G})</t>
+          <t>('Feathered Friends', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chandra</t>
+          <t>('Garruk', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Goblins', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>(Theme color: {R})</t>
+          <t>('Heavily Armored', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Devilish</t>
+          <t>('Lands', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Legion', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>(Theme color: {R})</t>
+          <t>('Lightning', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dinosaurs</t>
+          <t>('Liliana', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Milling', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>(Theme color: {G})</t>
+          <t>('Minions', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Discarding</t>
+          <t>('Minotaurs', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Phyrexian', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(Theme color: {B})</t>
+          <t>('Pirates', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Doctor</t>
+          <t>('Plus One', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Predatory', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>(Theme color: {W})</t>
+          <t>('Rainbow', ['Card', '(Theme colors: {W}{U}{B}{R}{G})'])</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dogs</t>
+          <t>('Reanimated', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Rogues', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>(Theme color: {W})</t>
+          <t>('Seismic', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Dragons</t>
+          <t>('Smashing', ['Card', '(Theme color: {R})'])</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Spellcasting', ['Card'])</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>(Theme color: {R})</t>
+          <t>('Spirits', ['Card'])</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Elves</t>
+          <t>('Spooky', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Teferi', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>(Theme color: {G})</t>
+          <t>('Tree-Hugging', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Enchanted</t>
+          <t>('Under the Sea', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Unicorns', ['Card', '(Theme color: {W})'])</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>(Theme color: {W})</t>
+          <t>('Vampires', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Feathered Friends</t>
+          <t>('Walls', ['Card', '(Theme color: {G})'])</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>('Well-Read', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>(Theme color: {W})</t>
+          <t>('Witchcraft', ['Card', '(Theme color: {B})'])</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Garruk</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>(Theme color: {G})</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Goblins</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>(Theme color: {R})</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Heavily Armored</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>(Theme color: {W})</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Lands</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>(Theme color: {G})</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Legion</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>(Theme color: {W})</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Lightning</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>(Theme color: {R})</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Liliana</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Milling</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>(Theme color: {U})</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Minions</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Minotaurs</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>(Theme color: {R})</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Phyrexian</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Pirates</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>(Theme color: {U})</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Plus One</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>(Theme color: {G})</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Predatory</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>(Theme color: {G})</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Rainbow</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>(Theme colors: {W}{U}{B}{R}{G})</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Reanimated</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Rogues</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Seismic</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>(Theme color: {R})</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Smashing</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>(Theme color: {R})</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Spellcasting</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Spirits</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Spooky</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Teferi</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>(Theme color: {U})</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Tree-Hugging</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>(Theme color: {G})</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Under the Sea</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>(Theme color: {U})</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Unicorns</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>(Theme color: {W})</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Vampires</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Walls</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>(Theme color: {G})</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Well-Read</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>(Theme color: {U})</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Witchcraft</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>(Theme color: {B})</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Wizards</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>(Theme color: {U})</t>
+          <t>('Wizards', ['Card', '(Theme color: {U})'])</t>
         </is>
       </c>
     </row>
